--- a/downloaded_files/SBES261_Lecture-35498.xlsx
+++ b/downloaded_files/SBES261_Lecture-35498.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Nabil Shehata Mohamed Habib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210355</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ماهي تامر حسن ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahy tamer hassan Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1200245</x:t>
@@ -218,7 +209,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -518,7 +509,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T9"/>
+  <x:dimension ref="A1:T8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -705,7 +696,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.418968206</x:v>
+        <x:v>45906.6657622338</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -737,7 +728,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6657622338</x:v>
+        <x:v>45906.6750576389</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -769,7 +760,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6750576389</x:v>
+        <x:v>45907.6697387384</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -801,7 +792,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6697387384</x:v>
+        <x:v>45906.4150845718</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -818,38 +809,6 @@
       <x:c r="R8" s="2" t="s"/>
       <x:c r="S8" s="2" t="s"/>
       <x:c r="T8" s="2" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:20">
-      <x:c r="A9" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E9" s="3">
-        <x:v>45906.4150845718</x:v>
-      </x:c>
-      <x:c r="F9" s="2" t="s"/>
-      <x:c r="G9" s="2" t="s"/>
-      <x:c r="H9" s="2" t="s"/>
-      <x:c r="I9" s="2" t="s"/>
-      <x:c r="J9" s="2" t="s"/>
-      <x:c r="K9" s="2" t="s"/>
-      <x:c r="L9" s="2" t="s"/>
-      <x:c r="M9" s="2" t="s"/>
-      <x:c r="N9" s="2" t="s"/>
-      <x:c r="O9" s="2" t="s"/>
-      <x:c r="P9" s="2" t="s"/>
-      <x:c r="Q9" s="2" t="s"/>
-      <x:c r="R9" s="2" t="s"/>
-      <x:c r="S9" s="2" t="s"/>
-      <x:c r="T9" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
